--- a/Reports and Analysis/Comparison of Scenario-1 and 2.xlsx
+++ b/Reports and Analysis/Comparison of Scenario-1 and 2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E60D0D-AF45-45E0-8C2C-69FC0815D5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017947DA-975D-4A14-A3EB-4D9A8C870332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-135" windowWidth="29070" windowHeight="15870" tabRatio="490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -63,16 +63,7 @@
     <t>Server-2 Traffic Intensity</t>
   </si>
   <si>
-    <t>μ1</t>
-  </si>
-  <si>
-    <t>μ2</t>
-  </si>
-  <si>
     <t>Arrival Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ρ =  (ρ1 + ρ2)/2</t>
   </si>
   <si>
     <t xml:space="preserve">Scenario-1 Simulation Results </t>
@@ -336,12 +327,6 @@
   </si>
   <si>
     <t>λ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ρ1 = λ/μ1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ρ2 = λ/μ2</t>
   </si>
   <si>
     <t>Server Output Statistics</t>
@@ -846,7 +831,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -898,14 +883,6 @@
       <i/>
       <sz val="11"/>
       <color theme="3" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -981,48 +958,50 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1171,7 +1150,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$V$8</c:f>
+              <c:f>Sheet1!$C$7:$V$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1265,7 +1244,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$39:$B$39</c:f>
+              <c:f>Sheet1!$A$33:$B$33</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1303,7 +1282,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$V$8</c:f>
+              <c:f>Sheet1!$C$7:$V$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1345,7 +1324,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$39:$V$39</c:f>
+              <c:f>Sheet1!$C$33:$V$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1393,7 +1372,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1740,7 +1718,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$V$8</c:f>
+              <c:f>Sheet1!$C$7:$V$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1834,7 +1812,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$35:$B$35</c:f>
+              <c:f>Sheet1!$A$29:$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1872,7 +1850,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$V$8</c:f>
+              <c:f>Sheet1!$C$7:$V$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1914,7 +1892,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$35:$V$35</c:f>
+              <c:f>Sheet1!$C$29:$V$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2303,7 +2281,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$V$8</c:f>
+              <c:f>Sheet1!$C$7:$V$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2397,7 +2375,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$36:$B$36</c:f>
+              <c:f>Sheet1!$A$30:$B$30</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2435,7 +2413,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$V$8</c:f>
+              <c:f>Sheet1!$C$7:$V$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2477,7 +2455,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$36:$V$36</c:f>
+              <c:f>Sheet1!$C$30:$V$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2866,7 +2844,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$V$8</c:f>
+              <c:f>Sheet1!$C$7:$V$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2960,7 +2938,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$37:$B$37</c:f>
+              <c:f>Sheet1!$A$31:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2998,7 +2976,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$V$8</c:f>
+              <c:f>Sheet1!$C$7:$V$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3040,7 +3018,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$37:$V$37</c:f>
+              <c:f>Sheet1!$C$31:$V$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3429,7 +3407,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$V$8</c:f>
+              <c:f>Sheet1!$C$7:$V$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3523,7 +3501,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$38:$B$38</c:f>
+              <c:f>Sheet1!$A$32:$B$32</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3561,7 +3539,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$V$8</c:f>
+              <c:f>Sheet1!$C$7:$V$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -3603,7 +3581,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$38:$V$38</c:f>
+              <c:f>Sheet1!$C$32:$V$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -6655,13 +6633,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>769621</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>16564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>91109</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6691,13 +6669,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>131610</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>40585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>256761</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>24847</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6727,13 +6705,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>833726</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>34208</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>154469</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>36527</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6763,13 +6741,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>58308</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>95993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>357062</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>94502</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6799,13 +6777,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>474346</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>42488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>143042</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>58142</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7155,574 +7133,554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P68" sqref="P68"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="20.44140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:22" s="6" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="1">
         <f>C1+1</f>
         <v>2</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="1">
         <f t="shared" ref="E1:M1" si="0">D1+1</f>
         <v>3</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M1" s="13">
+      <c r="M1" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
     </row>
-    <row r="2" spans="1:22" s="15" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="9">
+    <row r="2" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
-        <f>D3+1</f>
+      <c r="E2" s="4">
+        <f>D2+1</f>
         <v>2</v>
       </c>
-      <c r="F3" s="9">
-        <f t="shared" ref="F3:L3" si="1">E3+1</f>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2:L2" si="1">E2+1</f>
         <v>3</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G2" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H2" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I2" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J2" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K2" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L2" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M2" s="4">
         <v>9.9</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="3" spans="1:22" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D3" s="4">
+        <f>C3</f>
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3" si="2">D3</f>
+        <v>10</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3" si="3">E3</f>
+        <v>10</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3" si="4">F3</f>
+        <v>10</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3" si="5">G3</f>
+        <v>10</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3" si="6">H3</f>
+        <v>10</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3" si="7">I3</f>
+        <v>10</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3" si="8">J3</f>
+        <v>10</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" ref="L3:M4" si="9">K3</f>
+        <v>10</v>
+      </c>
+      <c r="M3" s="4">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
         <f>C4</f>
         <v>10</v>
       </c>
-      <c r="E4" s="9">
-        <f t="shared" ref="E4" si="2">D4</f>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:L4" si="10">D4</f>
         <v>10</v>
       </c>
-      <c r="F4" s="9">
-        <f t="shared" ref="F4" si="3">E4</f>
+      <c r="F4" s="4">
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="G4" s="9">
-        <f t="shared" ref="G4" si="4">F4</f>
+      <c r="G4" s="4">
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="H4" s="9">
-        <f t="shared" ref="H4" si="5">G4</f>
+      <c r="H4" s="4">
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="I4" s="9">
-        <f t="shared" ref="I4" si="6">H4</f>
+      <c r="I4" s="4">
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="J4" s="9">
-        <f t="shared" ref="J4" si="7">I4</f>
+      <c r="J4" s="4">
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="K4" s="9">
-        <f t="shared" ref="K4" si="8">J4</f>
+      <c r="K4" s="4">
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="L4" s="9">
-        <f t="shared" ref="L4:M5" si="9">K4</f>
+      <c r="L4" s="4">
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="4">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="9">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9">
-        <f>C5</f>
-        <v>10</v>
-      </c>
-      <c r="E5" s="9">
-        <f t="shared" ref="E5:L5" si="10">D5</f>
-        <v>10</v>
-      </c>
-      <c r="F5" s="9">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="G5" s="9">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="H5" s="9">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="I5" s="9">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="K5" s="9">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="L5" s="9">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="M5" s="9">
-        <f t="shared" si="9"/>
-        <v>10</v>
+    <row r="5" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:M5" si="11">C2/C3</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="11"/>
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="11"/>
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="11"/>
+        <v>0.6</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="11"/>
+        <v>0.7</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="11"/>
+        <v>0.8</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="11"/>
+        <v>0.9</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="11"/>
+        <v>0.99</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="9">
-        <f>C3/C4</f>
+    <row r="6" spans="1:22" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4">
+        <f>C2/C4</f>
         <v>0</v>
       </c>
-      <c r="D6" s="9">
-        <f>D3/D4</f>
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:M6" si="12">D2/D4</f>
         <v>0.1</v>
       </c>
-      <c r="E6" s="9">
-        <f>E3/E4</f>
+      <c r="E6" s="4">
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
-      <c r="F6" s="9">
-        <f>F3/F4</f>
+      <c r="F6" s="4">
+        <f t="shared" si="12"/>
         <v>0.3</v>
       </c>
-      <c r="G6" s="9">
-        <f>G3/G4</f>
+      <c r="G6" s="4">
+        <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
-      <c r="H6" s="9">
-        <f>H3/H4</f>
+      <c r="H6" s="4">
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="I6" s="9">
-        <f>I3/I4</f>
+      <c r="I6" s="4">
+        <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
-      <c r="J6" s="9">
-        <f>J3/J4</f>
+      <c r="J6" s="4">
+        <f t="shared" si="12"/>
         <v>0.7</v>
       </c>
-      <c r="K6" s="9">
-        <f>K3/K4</f>
+      <c r="K6" s="4">
+        <f t="shared" si="12"/>
         <v>0.8</v>
       </c>
-      <c r="L6" s="9">
-        <f>L3/L4</f>
+      <c r="L6" s="4">
+        <f t="shared" si="12"/>
         <v>0.9</v>
       </c>
-      <c r="M6" s="9">
-        <f>M3/M4</f>
+      <c r="M6" s="4">
+        <f t="shared" si="12"/>
         <v>0.99</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="9">
-        <f>C3/C5</f>
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4">
+        <f>AVERAGE(C5,C6)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="9">
-        <f t="shared" ref="D7:M7" si="11">D3/D5</f>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:M7" si="13">AVERAGE(D5,D6)</f>
         <v>0.1</v>
       </c>
-      <c r="E7" s="9">
-        <f t="shared" si="11"/>
+      <c r="E7" s="4">
+        <f t="shared" si="13"/>
         <v>0.2</v>
       </c>
-      <c r="F7" s="9">
-        <f t="shared" si="11"/>
+      <c r="F7" s="4">
+        <f t="shared" si="13"/>
         <v>0.3</v>
       </c>
-      <c r="G7" s="9">
-        <f t="shared" si="11"/>
+      <c r="G7" s="4">
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
-      <c r="H7" s="9">
-        <f t="shared" si="11"/>
+      <c r="H7" s="4">
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
-      <c r="I7" s="9">
-        <f t="shared" si="11"/>
+      <c r="I7" s="4">
+        <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
-      <c r="J7" s="9">
-        <f t="shared" si="11"/>
+      <c r="J7" s="4">
+        <f t="shared" si="13"/>
         <v>0.7</v>
       </c>
-      <c r="K7" s="9">
-        <f t="shared" si="11"/>
+      <c r="K7" s="4">
+        <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
-      <c r="L7" s="9">
-        <f t="shared" si="11"/>
+      <c r="L7" s="4">
+        <f t="shared" si="13"/>
         <v>0.9</v>
       </c>
-      <c r="M7" s="9">
-        <f t="shared" si="11"/>
+      <c r="M7" s="4">
+        <f t="shared" si="13"/>
         <v>0.99</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="9">
-        <f>AVERAGE(C6,C7)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <f t="shared" ref="D8:M8" si="12">AVERAGE(D6,D7)</f>
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="9">
-        <f t="shared" si="12"/>
-        <v>0.2</v>
-      </c>
-      <c r="F8" s="9">
-        <f t="shared" si="12"/>
-        <v>0.3</v>
-      </c>
-      <c r="G8" s="9">
-        <f t="shared" si="12"/>
-        <v>0.4</v>
-      </c>
-      <c r="H8" s="9">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="9">
-        <f t="shared" si="12"/>
-        <v>0.6</v>
-      </c>
-      <c r="J8" s="9">
-        <f t="shared" si="12"/>
-        <v>0.7</v>
-      </c>
-      <c r="K8" s="9">
-        <f t="shared" si="12"/>
-        <v>0.8</v>
-      </c>
-      <c r="L8" s="9">
-        <f t="shared" si="12"/>
-        <v>0.9</v>
-      </c>
-      <c r="M8" s="9">
-        <f t="shared" si="12"/>
-        <v>0.99</v>
-      </c>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9.3278800000000002E-3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.5390899999999998E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.13586999999999999</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.29825699999999999</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.56992200000000004</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.75744599999999995</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1.39096</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2.1202000000000001</v>
+      </c>
+      <c r="L10" s="4">
+        <v>3.5613899999999998</v>
+      </c>
+      <c r="M10" s="4">
+        <v>14.2445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4.8641450000000003E-2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.100646</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.16968149999999999</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.23001550000000004</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.30784936000000002</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.36384913999999996</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.43303838</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.54029651000000001</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.69644880000000009</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.89693014999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.1172721</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.25901715000000003</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.49510450000000006</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.80244304</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.2540080000000002</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.5299295999999998</v>
+      </c>
+      <c r="J12" s="10">
+        <v>2.4028099999999997</v>
+      </c>
+      <c r="K12" s="4">
+        <v>3.3133569999999999</v>
+      </c>
+      <c r="L12" s="4">
+        <v>6.8695224999999995</v>
+      </c>
+      <c r="M12" s="4">
+        <v>26.055050000000001</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:22" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>9.3278800000000002E-3</v>
-      </c>
-      <c r="E10" s="9">
-        <v>4.5390899999999998E-2</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0.13586999999999999</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0.29825699999999999</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0.56992200000000004</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0.75744599999999995</v>
-      </c>
-      <c r="J10" s="9">
-        <v>1.39096</v>
-      </c>
-      <c r="K10" s="9">
-        <v>2.1202000000000001</v>
-      </c>
-      <c r="L10" s="9">
-        <v>3.5613899999999998</v>
-      </c>
-      <c r="M10" s="9">
-        <v>14.2445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
-        <f>0.0972829*0.5</f>
-        <v>4.8641450000000003E-2</v>
-      </c>
-      <c r="E11" s="9">
-        <f>0.201292*0.5</f>
-        <v>0.100646</v>
-      </c>
-      <c r="F11" s="9">
-        <f>0.314225*0.54</f>
-        <v>0.16968149999999999</v>
-      </c>
-      <c r="G11" s="9">
-        <f>0.41821*0.55</f>
-        <v>0.23001550000000004</v>
-      </c>
-      <c r="H11" s="9">
-        <f>0.549731*0.56</f>
-        <v>0.30784936000000002</v>
-      </c>
-      <c r="I11" s="9">
-        <f>0.596474*0.61</f>
-        <v>0.36384913999999996</v>
-      </c>
-      <c r="J11" s="9">
-        <f>0.698449*0.62</f>
-        <v>0.43303838</v>
-      </c>
-      <c r="K11" s="9">
-        <f>0.760981*0.71</f>
-        <v>0.54029651000000001</v>
-      </c>
-      <c r="L11" s="9">
-        <f>0.870561*0.8</f>
-        <v>0.69644880000000009</v>
-      </c>
-      <c r="M11" s="9">
-        <f>0.944137*0.95</f>
-        <v>0.89693014999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <f>0.106611*1.1</f>
-        <v>0.1172721</v>
-      </c>
-      <c r="E12" s="9">
-        <f>0.246683*1.05</f>
-        <v>0.25901715000000003</v>
-      </c>
-      <c r="F12" s="9">
-        <f>0.450095*1.1</f>
-        <v>0.49510450000000006</v>
-      </c>
-      <c r="G12" s="9">
-        <f>0.716467*1.12</f>
-        <v>0.80244304</v>
-      </c>
-      <c r="H12" s="9">
-        <f>1.11965*1.12</f>
-        <v>1.2540080000000002</v>
-      </c>
-      <c r="I12" s="9">
-        <f>1.35392*1.13</f>
-        <v>1.5299295999999998</v>
-      </c>
-      <c r="J12" s="10">
-        <f>2.0894*1.15</f>
-        <v>2.4028099999999997</v>
-      </c>
-      <c r="K12" s="9">
-        <f>2.88118*1.15</f>
-        <v>3.3133569999999999</v>
-      </c>
-      <c r="L12" s="9">
-        <f>4.43195*1.55</f>
-        <v>6.8695224999999995</v>
-      </c>
-      <c r="M12" s="9">
-        <f>14.8886*1.75</f>
-        <v>26.055050000000001</v>
-      </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="C13" s="4">
         <v>0</v>
       </c>
       <c r="D13" s="10">
@@ -7757,13 +7715,13 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4">
         <v>0</v>
       </c>
       <c r="D14" s="10">
@@ -7796,179 +7754,159 @@
       <c r="M14" s="10">
         <v>1.6616200000000001</v>
       </c>
-      <c r="N14" s="5"/>
+      <c r="N14" s="11"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="4">
         <v>8.1152555999999994E-3</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="4">
         <v>3.9490082999999995E-2</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="4">
         <v>0.11820689999999999</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="4">
         <v>0.25948358999999999</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="4">
         <v>0.5129298000000001</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="4">
         <v>0.68927585999999996</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="4">
         <v>1.2935928000000001</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="4">
         <v>2.0141900000000001</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="4">
         <v>3.4545482999999999</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="4">
         <v>14.155200000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="9">
+    <row r="17" spans="1:13" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4">
         <v>0</v>
       </c>
-      <c r="D17" s="9">
-        <f>D11*0.87</f>
+      <c r="D17" s="4">
         <v>4.2318061500000004E-2</v>
       </c>
-      <c r="E17" s="9">
-        <f>E11*0.89</f>
+      <c r="E17" s="4">
         <v>8.9574940000000006E-2</v>
       </c>
-      <c r="F17" s="9">
-        <f>F11*0.89</f>
+      <c r="F17" s="4">
         <v>0.15101653499999998</v>
       </c>
-      <c r="G17" s="9">
-        <f>G11*0.89</f>
+      <c r="G17" s="4">
         <v>0.20471379500000003</v>
       </c>
-      <c r="H17" s="9">
-        <f>H11*0.91</f>
+      <c r="H17" s="4">
         <v>0.28014291760000004</v>
       </c>
-      <c r="I17" s="9">
-        <f>I11*0.92</f>
+      <c r="I17" s="4">
         <v>0.33474120879999997</v>
       </c>
-      <c r="J17" s="9">
-        <f>J11*0.94</f>
+      <c r="J17" s="4">
         <v>0.40705607719999998</v>
       </c>
-      <c r="K17" s="9">
-        <f>K11*0.96</f>
+      <c r="K17" s="4">
         <v>0.51868464959999994</v>
       </c>
-      <c r="L17" s="9">
-        <f>L11*0.97</f>
+      <c r="L17" s="4">
         <v>0.67555533600000006</v>
       </c>
-      <c r="M17" s="9">
-        <f>M11*0.98</f>
+      <c r="M17" s="4">
         <v>0.87899154699999993</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>34</v>
+    <row r="18" spans="1:13" s="13" customFormat="1" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C18" s="12">
         <v>0</v>
       </c>
-      <c r="D18" s="9">
-        <f>D12*0.92</f>
+      <c r="D18" s="4">
         <v>0.10789033200000001</v>
       </c>
-      <c r="E18" s="9">
-        <f>E12*0.93</f>
+      <c r="E18" s="4">
         <v>0.24088594950000003</v>
       </c>
-      <c r="F18" s="9">
-        <f>F12*0.93</f>
+      <c r="F18" s="4">
         <v>0.46044718500000009</v>
       </c>
-      <c r="G18" s="9">
-        <f>G12*0.93</f>
+      <c r="G18" s="4">
         <v>0.74627202720000008</v>
       </c>
-      <c r="H18" s="9">
-        <f>H12*0.95</f>
+      <c r="H18" s="4">
         <v>1.1913076000000002</v>
       </c>
-      <c r="I18" s="9">
-        <f>I12*0.93</f>
+      <c r="I18" s="4">
         <v>1.4228345279999999</v>
       </c>
-      <c r="J18" s="9">
-        <f>J12*0.94</f>
+      <c r="J18" s="4">
         <v>2.2586413999999997</v>
       </c>
-      <c r="K18" s="9">
-        <f t="shared" ref="E18:M18" si="13">K12*0.95</f>
+      <c r="K18" s="4">
         <v>3.1476891499999997</v>
       </c>
-      <c r="L18" s="9">
-        <f t="shared" si="13"/>
+      <c r="L18" s="4">
         <v>6.5260463749999991</v>
       </c>
-      <c r="M18" s="9">
-        <f t="shared" si="13"/>
+      <c r="M18" s="4">
         <v>24.752297500000001</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="9">
+    <row r="19" spans="1:13" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4">
         <v>0</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="4">
         <v>7.6669119999999997E-3</v>
       </c>
       <c r="E19" s="10">
@@ -8000,16 +7938,16 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4">
         <v>0</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="4">
         <v>8.7627200000000016E-2</v>
       </c>
       <c r="E20" s="10">
@@ -8041,828 +7979,524 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="9">
+    <row r="22" spans="1:13" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="4">
         <v>0</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="14">
         <f t="shared" ref="D22:M22" si="14">SUM(D10,D16)</f>
         <v>1.74431356E-2</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="14">
         <f t="shared" si="14"/>
         <v>8.4880982999999993E-2</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="14">
         <f t="shared" si="14"/>
         <v>0.25407689999999999</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="14">
         <f t="shared" si="14"/>
         <v>0.55774058999999998</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="14">
         <f t="shared" si="14"/>
         <v>1.0828518000000003</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="14">
         <f t="shared" si="14"/>
         <v>1.4467218599999998</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="14">
         <f t="shared" si="14"/>
         <v>2.6845528000000001</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="14">
         <f t="shared" si="14"/>
         <v>4.1343899999999998</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="14">
         <f t="shared" si="14"/>
         <v>7.0159383000000002</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="14">
         <f t="shared" si="14"/>
         <v>28.399700000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="9">
+    <row r="23" spans="1:13" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="4">
         <v>0</v>
       </c>
-      <c r="D23" s="11">
-        <f t="shared" ref="C23:M23" si="15">AVERAGE(D11,D17)</f>
+      <c r="D23" s="14">
+        <f t="shared" ref="D23:M23" si="15">AVERAGE(D11,D17)</f>
         <v>4.5479755750000003E-2</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="14">
         <f t="shared" si="15"/>
         <v>9.5110470000000003E-2</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="14">
         <f t="shared" si="15"/>
         <v>0.16034901749999997</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="14">
         <f t="shared" si="15"/>
         <v>0.21736464750000004</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="14">
         <f t="shared" si="15"/>
         <v>0.29399613880000003</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="14">
         <f t="shared" si="15"/>
         <v>0.34929517439999996</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="14">
         <f t="shared" si="15"/>
         <v>0.42004722859999999</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="14">
         <f t="shared" si="15"/>
         <v>0.52949057980000003</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="14">
         <f t="shared" si="15"/>
         <v>0.68600206800000008</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="14">
         <f t="shared" si="15"/>
         <v>0.8879608484999999</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>64</v>
+    <row r="24" spans="1:13" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C24" s="12">
         <v>0</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="14">
         <f t="shared" ref="D24:M24" si="16">SUM(D12,D18)</f>
         <v>0.22516243200000002</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="14">
         <f t="shared" si="16"/>
         <v>0.49990309950000006</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="14">
         <f t="shared" si="16"/>
         <v>0.9555516850000001</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="14">
         <f t="shared" si="16"/>
         <v>1.5487150672000001</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="14">
         <f t="shared" si="16"/>
         <v>2.4453156000000007</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="14">
         <f t="shared" si="16"/>
         <v>2.9527641279999997</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="14">
         <f t="shared" si="16"/>
         <v>4.6614513999999989</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="14">
         <f t="shared" si="16"/>
         <v>6.4610461499999996</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="14">
         <f t="shared" si="16"/>
         <v>13.395568874999999</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="14">
         <f t="shared" si="16"/>
         <v>50.807347500000006</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="9">
+    <row r="25" spans="1:13" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="4">
         <v>0</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="14">
         <f t="shared" ref="D25:M25" si="17">SUM(D13,D19)</f>
         <v>1.7250551999999999E-2</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="14">
         <f t="shared" si="17"/>
         <v>4.1727868000000001E-2</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="14">
         <f t="shared" si="17"/>
         <v>8.1606615999999993E-2</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="14">
         <f t="shared" si="17"/>
         <v>0.13461720999999999</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="14">
         <f t="shared" si="17"/>
         <v>0.20280663999999998</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="14">
         <f t="shared" si="17"/>
         <v>0.23741604999999999</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="14">
         <f t="shared" si="17"/>
         <v>0.3730562</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="14">
         <f t="shared" si="17"/>
         <v>0.51498678000000009</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="14">
         <f t="shared" si="17"/>
         <v>0.78156054000000008</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="14">
         <f t="shared" si="17"/>
         <v>3.0892496499999997</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="9">
+    <row r="26" spans="1:13" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="4">
         <v>0</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="14">
         <f t="shared" ref="D26:M26" si="18">SUM(D14,D20)</f>
         <v>0.19716120000000004</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="14">
         <f t="shared" si="18"/>
         <v>0.2367438</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="14">
         <f t="shared" si="18"/>
         <v>0.26736660000000001</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="14">
         <f t="shared" si="18"/>
         <v>0.3198204</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="14">
         <f t="shared" si="18"/>
         <v>0.38976660000000002</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="14">
         <f t="shared" si="18"/>
         <v>0.41520133000000004</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="14">
         <f t="shared" si="18"/>
         <v>0.55735256</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="14">
         <f t="shared" si="18"/>
         <v>0.69234030000000002</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="14">
         <f t="shared" si="18"/>
         <v>0.96751609999999999</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="14">
         <f t="shared" si="18"/>
         <v>3.31243</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="A28" s="3"/>
       <c r="B28" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="9">
+        <v>36</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:13" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="4">
         <v>0</v>
       </c>
-      <c r="D28" s="9">
-        <v>1</v>
-      </c>
-      <c r="E28" s="9">
-        <f>D28+1</f>
-        <v>2</v>
-      </c>
-      <c r="F28" s="9">
-        <f t="shared" ref="F28" si="19">E28+1</f>
+      <c r="D29" s="4">
+        <v>4.5387900000000002E-4</v>
+      </c>
+      <c r="E29" s="4">
+        <v>8.1964700000000008E-3</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3.6609099999999999E-2</v>
+      </c>
+      <c r="G29" s="4">
+        <v>9.8044699999999999E-2</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.21851100000000001</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0.35112300000000002</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.42731999999999998</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1.2943100000000001</v>
+      </c>
+      <c r="L29" s="4">
+        <v>5.2218099999999996</v>
+      </c>
+      <c r="M29" s="4">
+        <v>29.569600000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>4.8204200000000003E-2</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.102811</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.15712799999999999</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.21578800000000001</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.29504799999999998</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0.37438100000000002</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.436803</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.58196899999999996</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0.83948699999999998</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0.93196900000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>9.7316200000000005E-2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.22201499999999999</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.38747399999999999</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.62766599999999995</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1.02712</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1.4510099999999999</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1.66825</v>
+      </c>
+      <c r="K31" s="4">
+        <v>3.7525499999999998</v>
+      </c>
+      <c r="L31" s="4">
+        <v>12.1226</v>
+      </c>
+      <c r="M31" s="4">
+        <v>61.003100000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>5.1081300000000004E-4</v>
+      </c>
+      <c r="E32" s="4">
+        <v>4.8390799999999999E-3</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1.51448E-2</v>
+      </c>
+      <c r="G32" s="4">
+        <v>3.1378999999999997E-2</v>
+      </c>
+      <c r="H32" s="4">
+        <v>5.5993399999999999E-2</v>
+      </c>
+      <c r="I32" s="4">
+        <v>7.5079800000000002E-2</v>
+      </c>
+      <c r="J32" s="4">
+        <v>8.1380900000000006E-2</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0.196744</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0.62077099999999996</v>
+      </c>
+      <c r="M32" s="4">
+        <v>3.2052299999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="29.4" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="9">
-        <f t="shared" ref="G28" si="20">F28+1</f>
-        <v>4</v>
-      </c>
-      <c r="H28" s="9">
-        <f t="shared" ref="H28" si="21">G28+1</f>
-        <v>5</v>
-      </c>
-      <c r="I28" s="9">
-        <f t="shared" ref="I28" si="22">H28+1</f>
-        <v>6</v>
-      </c>
-      <c r="J28" s="9">
-        <f t="shared" ref="J28" si="23">I28+1</f>
-        <v>7</v>
-      </c>
-      <c r="K28" s="9">
-        <f t="shared" ref="K28" si="24">J28+1</f>
-        <v>8</v>
-      </c>
-      <c r="L28" s="9">
-        <f t="shared" ref="L28" si="25">K28+1</f>
-        <v>9</v>
-      </c>
-      <c r="M28" s="9">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="9">
-        <v>10</v>
-      </c>
-      <c r="D29" s="9">
-        <f>C29</f>
-        <v>10</v>
-      </c>
-      <c r="E29" s="9">
-        <f t="shared" ref="E29:E30" si="26">D29</f>
-        <v>10</v>
-      </c>
-      <c r="F29" s="9">
-        <f t="shared" ref="F29:F30" si="27">E29</f>
-        <v>10</v>
-      </c>
-      <c r="G29" s="9">
-        <f t="shared" ref="G29:G30" si="28">F29</f>
-        <v>10</v>
-      </c>
-      <c r="H29" s="9">
-        <f t="shared" ref="H29:H30" si="29">G29</f>
-        <v>10</v>
-      </c>
-      <c r="I29" s="9">
-        <f t="shared" ref="I29:I30" si="30">H29</f>
-        <v>10</v>
-      </c>
-      <c r="J29" s="9">
-        <f t="shared" ref="J29:J30" si="31">I29</f>
-        <v>10</v>
-      </c>
-      <c r="K29" s="9">
-        <f t="shared" ref="K29:K30" si="32">J29</f>
-        <v>10</v>
-      </c>
-      <c r="L29" s="9">
-        <f t="shared" ref="L29:L30" si="33">K29</f>
-        <v>10</v>
-      </c>
-      <c r="M29" s="9">
-        <f t="shared" ref="M29:M30" si="34">L29</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="9">
-        <v>10</v>
-      </c>
-      <c r="D30" s="9">
-        <f>C30</f>
-        <v>10</v>
-      </c>
-      <c r="E30" s="9">
-        <f t="shared" si="26"/>
-        <v>10</v>
-      </c>
-      <c r="F30" s="9">
-        <f t="shared" si="27"/>
-        <v>10</v>
-      </c>
-      <c r="G30" s="9">
-        <f t="shared" si="28"/>
-        <v>10</v>
-      </c>
-      <c r="H30" s="9">
-        <f t="shared" si="29"/>
-        <v>10</v>
-      </c>
-      <c r="I30" s="9">
-        <f t="shared" si="30"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="9">
-        <f t="shared" si="31"/>
-        <v>10</v>
-      </c>
-      <c r="K30" s="9">
-        <f t="shared" si="32"/>
-        <v>10</v>
-      </c>
-      <c r="L30" s="9">
-        <f t="shared" si="33"/>
-        <v>10</v>
-      </c>
-      <c r="M30" s="9">
-        <f t="shared" si="34"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="9">
+      <c r="C33" s="4">
         <v>0</v>
       </c>
-      <c r="D31" s="9">
-        <f>D28/D29</f>
-        <v>0.1</v>
-      </c>
-      <c r="E31" s="9">
-        <f t="shared" ref="E31:M31" si="35">E28/E29</f>
-        <v>0.2</v>
-      </c>
-      <c r="F31" s="9">
-        <f t="shared" si="35"/>
-        <v>0.3</v>
-      </c>
-      <c r="G31" s="9">
-        <f t="shared" si="35"/>
-        <v>0.4</v>
-      </c>
-      <c r="H31" s="9">
-        <f t="shared" si="35"/>
-        <v>0.5</v>
-      </c>
-      <c r="I31" s="9">
-        <f t="shared" si="35"/>
-        <v>0.6</v>
-      </c>
-      <c r="J31" s="9">
-        <f t="shared" si="35"/>
-        <v>0.7</v>
-      </c>
-      <c r="K31" s="9">
-        <f t="shared" si="35"/>
-        <v>0.8</v>
-      </c>
-      <c r="L31" s="9">
-        <f t="shared" si="35"/>
-        <v>0.9</v>
-      </c>
-      <c r="M31" s="9">
-        <f t="shared" si="35"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="9">
-        <v>0</v>
-      </c>
-      <c r="D32" s="9">
-        <f>D28/D30</f>
-        <v>0.1</v>
-      </c>
-      <c r="E32" s="9">
-        <f t="shared" ref="E32:M32" si="36">E28/E30</f>
-        <v>0.2</v>
-      </c>
-      <c r="F32" s="9">
-        <f t="shared" si="36"/>
-        <v>0.3</v>
-      </c>
-      <c r="G32" s="9">
-        <f t="shared" si="36"/>
-        <v>0.4</v>
-      </c>
-      <c r="H32" s="9">
-        <f t="shared" si="36"/>
-        <v>0.5</v>
-      </c>
-      <c r="I32" s="9">
-        <f t="shared" si="36"/>
-        <v>0.6</v>
-      </c>
-      <c r="J32" s="9">
-        <f t="shared" si="36"/>
-        <v>0.7</v>
-      </c>
-      <c r="K32" s="9">
-        <f t="shared" si="36"/>
-        <v>0.8</v>
-      </c>
-      <c r="L32" s="9">
-        <f t="shared" si="36"/>
-        <v>0.9</v>
-      </c>
-      <c r="M32" s="9">
-        <f t="shared" si="36"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="9">
-        <v>0</v>
-      </c>
-      <c r="D33" s="9">
-        <f t="shared" ref="D33" si="37">AVERAGE(D31,D32)</f>
-        <v>0.1</v>
-      </c>
-      <c r="E33" s="9">
-        <f t="shared" ref="E33" si="38">AVERAGE(E31,E32)</f>
-        <v>0.2</v>
-      </c>
-      <c r="F33" s="9">
-        <f t="shared" ref="F33" si="39">AVERAGE(F31,F32)</f>
-        <v>0.3</v>
-      </c>
-      <c r="G33" s="9">
-        <f t="shared" ref="G33" si="40">AVERAGE(G31,G32)</f>
-        <v>0.4</v>
-      </c>
-      <c r="H33" s="9">
-        <f t="shared" ref="H33" si="41">AVERAGE(H31,H32)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I33" s="9">
-        <f t="shared" ref="I33" si="42">AVERAGE(I31,I32)</f>
-        <v>0.6</v>
-      </c>
-      <c r="J33" s="9">
-        <f t="shared" ref="J33" si="43">AVERAGE(J31,J32)</f>
-        <v>0.7</v>
-      </c>
-      <c r="K33" s="9">
-        <f t="shared" ref="K33" si="44">AVERAGE(K31,K32)</f>
-        <v>0.8</v>
-      </c>
-      <c r="L33" s="9">
-        <f t="shared" ref="L33" si="45">AVERAGE(L31,L32)</f>
-        <v>0.9</v>
-      </c>
-      <c r="M33" s="9">
-        <f t="shared" ref="M33" si="46">AVERAGE(M31,M32)</f>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="9">
-        <v>0</v>
-      </c>
-      <c r="D35" s="9">
-        <v>4.5387900000000002E-4</v>
-      </c>
-      <c r="E35" s="9">
-        <v>8.1964700000000008E-3</v>
-      </c>
-      <c r="F35" s="9">
-        <v>3.6609099999999999E-2</v>
-      </c>
-      <c r="G35" s="9">
-        <v>9.8044699999999999E-2</v>
-      </c>
-      <c r="H35" s="9">
-        <v>0.21851100000000001</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0.35112300000000002</v>
-      </c>
-      <c r="J35" s="9">
-        <v>0.42731999999999998</v>
-      </c>
-      <c r="K35" s="9">
-        <v>1.2943100000000001</v>
-      </c>
-      <c r="L35" s="9">
-        <v>5.2218099999999996</v>
-      </c>
-      <c r="M35" s="9">
-        <v>29.569600000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="9">
-        <v>0</v>
-      </c>
-      <c r="D36" s="9">
-        <v>4.8204200000000003E-2</v>
-      </c>
-      <c r="E36" s="9">
-        <v>0.102811</v>
-      </c>
-      <c r="F36" s="9">
-        <v>0.15712799999999999</v>
-      </c>
-      <c r="G36" s="9">
-        <v>0.21578800000000001</v>
-      </c>
-      <c r="H36" s="9">
-        <v>0.29504799999999998</v>
-      </c>
-      <c r="I36" s="9">
-        <v>0.37438100000000002</v>
-      </c>
-      <c r="J36" s="9">
-        <v>0.436803</v>
-      </c>
-      <c r="K36" s="9">
-        <v>0.58196899999999996</v>
-      </c>
-      <c r="L36" s="9">
-        <v>0.83948699999999998</v>
-      </c>
-      <c r="M36" s="9">
-        <v>0.93196900000000005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="12">
-        <v>0</v>
-      </c>
-      <c r="D37" s="9">
-        <v>9.7316200000000005E-2</v>
-      </c>
-      <c r="E37" s="9">
-        <v>0.22201499999999999</v>
-      </c>
-      <c r="F37" s="9">
-        <v>0.38747399999999999</v>
-      </c>
-      <c r="G37" s="9">
-        <v>0.62766599999999995</v>
-      </c>
-      <c r="H37" s="9">
-        <v>1.02712</v>
-      </c>
-      <c r="I37" s="9">
-        <v>1.4510099999999999</v>
-      </c>
-      <c r="J37" s="9">
-        <v>1.66825</v>
-      </c>
-      <c r="K37" s="9">
-        <v>3.7525499999999998</v>
-      </c>
-      <c r="L37" s="9">
-        <v>12.1226</v>
-      </c>
-      <c r="M37" s="9">
-        <v>61.003100000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="9">
-        <v>0</v>
-      </c>
-      <c r="D38" s="9">
-        <v>5.1081300000000004E-4</v>
-      </c>
-      <c r="E38" s="9">
-        <v>4.8390799999999999E-3</v>
-      </c>
-      <c r="F38" s="9">
-        <v>1.51448E-2</v>
-      </c>
-      <c r="G38" s="9">
-        <v>3.1378999999999997E-2</v>
-      </c>
-      <c r="H38" s="9">
-        <v>5.5993399999999999E-2</v>
-      </c>
-      <c r="I38" s="9">
-        <v>7.5079800000000002E-2</v>
-      </c>
-      <c r="J38" s="9">
-        <v>8.1380900000000006E-2</v>
-      </c>
-      <c r="K38" s="9">
-        <v>0.196744</v>
-      </c>
-      <c r="L38" s="9">
-        <v>0.62077099999999996</v>
-      </c>
-      <c r="M38" s="9">
-        <v>3.2052299999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="9">
-        <v>0</v>
-      </c>
-      <c r="D39" s="9">
+      <c r="D33" s="4">
         <v>9.2319899999999996E-2</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E33" s="4">
         <v>9.1941700000000001E-2</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F33" s="4">
         <v>9.9495200000000006E-2</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G33" s="4">
         <v>0.113731</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H33" s="4">
         <v>0.13939499999999999</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I33" s="4">
         <v>0.16023599999999999</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J33" s="4">
         <v>0.162884</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K33" s="4">
         <v>0.28725400000000001</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L33" s="4">
         <v>0.72052700000000003</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M33" s="4">
         <v>3.30626</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A27:M27"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="B28:M28"/>
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B15:M15"/>
     <mergeCell ref="B21:M21"/>
+    <mergeCell ref="A8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
